--- a/model/grid_results.xlsx
+++ b/model/grid_results.xlsx
@@ -520,16 +520,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2995437145233154</v>
+        <v>0.4614320755004883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004923603230207841</v>
+        <v>0.01676453374630687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01519718170166016</v>
+        <v>0.02880496978759766</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001144087563462981</v>
+        <v>0.008163200619089112</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -546,28 +546,28 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.542483660130719</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5620915032679739</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5798319327731092</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6717171717171717</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7752525252525253</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6262753586282997</v>
+        <v>0.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08666805914912083</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -575,16 +575,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6062407970428467</v>
+        <v>0.9417183876037598</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01463470174975144</v>
+        <v>0.08661121009698579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02214789390563965</v>
+        <v>0.03549895286560058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001722564938134055</v>
+        <v>0.00469856044684144</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -601,28 +601,28 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.5457516339869281</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5718954248366013</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5630252100840336</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6809764309764309</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7643097643097643</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6251916928387516</v>
+        <v>0.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08423973116093629</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -630,16 +630,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8972524166107178</v>
+        <v>1.622926568984985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01094773831888293</v>
+        <v>0.1888588954143288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02975382804870606</v>
+        <v>0.05583739280700684</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001167910415272124</v>
+        <v>0.01083644154318569</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.548202614379085</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5637254901960784</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5672268907563025</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6877104377104377</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7828282828282829</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6299387431740373</v>
+        <v>0.2</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0913351477573297</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -685,16 +685,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.185967302322388</v>
+        <v>2.070205211639404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01456718901922642</v>
+        <v>0.1622548673420149</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04050426483154297</v>
+        <v>0.06826057434082031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003658977243865662</v>
+        <v>0.008056909272653052</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -711,28 +711,28 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.5498366013071896</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5727124183006536</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5764705882352941</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6868686868686869</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7735690235690236</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6318914636561695</v>
+        <v>0.2</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08532486077543375</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -740,16 +740,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.490969371795654</v>
+        <v>2.57688889503479</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03368227310721655</v>
+        <v>0.3223937309030938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04929838180541992</v>
+        <v>0.09806947708129883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002890513574765712</v>
+        <v>0.03716902049281795</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -766,28 +766,28 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.5531045751633987</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5759803921568627</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5739495798319327</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6809764309764309</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.765993265993266</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6300008488243782</v>
+        <v>0.2</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08132089387156555</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -795,16 +795,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3829883098602295</v>
+        <v>0.55997314453125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007648517033843228</v>
+        <v>0.04608577709623457</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01514105796813965</v>
+        <v>0.02072343826293945</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001666665553159805</v>
+        <v>0.0004902383578682962</v>
       </c>
       <c r="F7" t="n">
         <v>5</v>
@@ -821,28 +821,28 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.5408496732026143</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5751633986928104</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6851851851851851</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7508417508417508</v>
+        <v>0.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6221727074668252</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08168564677448018</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -850,16 +850,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.76447434425354</v>
+        <v>1.200400495529175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01408296578516392</v>
+        <v>0.05977699258215597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02246160507202149</v>
+        <v>0.04060044288635254</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002228104807187111</v>
+        <v>0.009080426974021047</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
@@ -876,28 +876,28 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.5383986928104575</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5800653594771242</v>
+        <v>0.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5823529411764705</v>
+        <v>0.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7070707070707071</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7382154882154882</v>
+        <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6292206377500495</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07848816314327479</v>
+        <v>0.3162277660168379</v>
       </c>
       <c r="Q8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.140715837478638</v>
+        <v>1.802418422698975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02227348180803852</v>
+        <v>0.1664980945744728</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03049936294555664</v>
+        <v>0.04682950973510742</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002995692214172797</v>
+        <v>0.004878799028146521</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -931,28 +931,28 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.5408496732026145</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5825163398692811</v>
+        <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5865546218487394</v>
+        <v>0.5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7222222222222223</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6327248677248677</v>
+        <v>0.5</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07855734779750065</v>
+        <v>0.3162277660168379</v>
       </c>
       <c r="Q9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -960,16 +960,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.531450414657593</v>
+        <v>2.522661542892456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03279290893151804</v>
+        <v>0.2306050093403315</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03958587646484375</v>
+        <v>0.08016805648803711</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003198398709846418</v>
+        <v>0.03476210215077353</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.5498366013071896</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5873949579831932</v>
+        <v>0.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.712962962962963</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7508417508417509</v>
+        <v>0.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0.636873921285686</v>
+        <v>0.3</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07958450335825294</v>
+        <v>0.2449489742783178</v>
       </c>
       <c r="Q10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1015,16 +1015,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.856285762786865</v>
+        <v>3.096520471572876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01162236882402643</v>
+        <v>0.4141569026104738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04845466613769531</v>
+        <v>0.09580512046813965</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001249876201308782</v>
+        <v>0.02547424164603767</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
@@ -1041,28 +1041,28 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.548202614379085</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5866013071895425</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7205387205387205</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7407407407407408</v>
+        <v>0.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6368637353931472</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07815851424940645</v>
+        <v>0.2260776661041756</v>
       </c>
       <c r="Q11" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1070,16 +1070,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4461465358734131</v>
+        <v>0.7061454296112061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003901087432249891</v>
+        <v>0.1437635439989823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01497025489807129</v>
+        <v>0.02146534919738769</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004032793622263263</v>
+        <v>0.0005570888009104386</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -1096,28 +1096,28 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.5690359477124183</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6241830065359477</v>
+        <v>0.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5663865546218487</v>
+        <v>0.2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6746632996632996</v>
+        <v>0.25</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7331649831649831</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6334867583396995</v>
+        <v>0.2766666666666667</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06383441107554842</v>
+        <v>0.1953913451967046</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1125,16 +1125,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8835850238800049</v>
+        <v>1.523260354995728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0124565192998448</v>
+        <v>0.4007319234351376</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02083706855773926</v>
+        <v>0.03380918502807617</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001321917723366331</v>
+        <v>0.0007929420576714266</v>
       </c>
       <c r="F13" t="n">
         <v>10</v>
@@ -1151,28 +1151,28 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.5890522875816994</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0.580672268907563</v>
+        <v>0.4</v>
       </c>
       <c r="M13" t="n">
-        <v>0.712121212121212</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7205387205387206</v>
+        <v>0.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.644006309594545</v>
+        <v>0.4466666666666667</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0603701999623712</v>
+        <v>0.06863753427324668</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1180,16 +1180,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.28839316368103</v>
+        <v>2.312264204025269</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02256680547085048</v>
+        <v>0.2327855089742818</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03375248908996582</v>
+        <v>0.06684813499450684</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002952335435527415</v>
+        <v>0.01449970033094693</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
@@ -1206,28 +1206,28 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.5808823529411764</v>
+        <v>0.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6217320261437909</v>
+        <v>0.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6008403361344539</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6978114478114478</v>
+        <v>0.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.702020202020202</v>
+        <v>0.5</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6406572730102142</v>
+        <v>0.4466666666666667</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05009711220076057</v>
+        <v>0.06863753427324668</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1235,16 +1235,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.68653130531311</v>
+        <v>3.022529697418213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04819597448015398</v>
+        <v>0.2669407610880501</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04316697120666504</v>
+        <v>0.07113447189331054</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001775099789960885</v>
+        <v>0.02891070618535429</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
@@ -1261,28 +1261,28 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6033613445378151</v>
+        <v>0.4</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6818181818181819</v>
+        <v>0.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7314814814814814</v>
+        <v>0.5</v>
       </c>
       <c r="O15" t="n">
-        <v>0.64058710352828</v>
+        <v>0.46</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05839860296057144</v>
+        <v>0.04898979485566355</v>
       </c>
       <c r="Q15" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1290,16 +1290,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.151766586303711</v>
+        <v>3.842090940475464</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05270203269141478</v>
+        <v>0.4670769941707486</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04869065284729004</v>
+        <v>0.07901721000671387</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00358413412303484</v>
+        <v>0.02769964439938712</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
@@ -1316,25 +1316,25 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.5661764705882354</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6225490196078431</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6025210084033613</v>
+        <v>0.5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6734006734006734</v>
+        <v>0.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7398989898989899</v>
+        <v>0.5</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6409092323798207</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06041589968114753</v>
+        <v>0.12</v>
       </c>
       <c r="Q16" t="n">
         <v>6</v>
@@ -1345,16 +1345,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4380224704742431</v>
+        <v>0.6544919013977051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01516171942204496</v>
+        <v>0.06521250757097827</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01708540916442871</v>
+        <v>0.02167658805847168</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00227577289353137</v>
+        <v>0.001414879708934418</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
@@ -1371,28 +1371,28 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.5490196078431372</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.619281045751634</v>
+        <v>0.6</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6418350168350169</v>
+        <v>0.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7672558922558922</v>
+        <v>0.4</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6269068839657075</v>
+        <v>0.28</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07862861299527317</v>
+        <v>0.2039607805437114</v>
       </c>
       <c r="Q17" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1400,16 +1400,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8872081279754639</v>
+        <v>1.479765892028809</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01771732977263076</v>
+        <v>0.2332081905568334</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02224860191345215</v>
+        <v>0.05093774795532226</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002141129433444627</v>
+        <v>0.01447956081871629</v>
       </c>
       <c r="F18" t="n">
         <v>20</v>
@@ -1426,28 +1426,28 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.5723039215686274</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5955882352941175</v>
+        <v>0.6</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5815126050420169</v>
+        <v>0.25</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7041245791245792</v>
+        <v>0.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.4</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6422210197210196</v>
+        <v>0.43</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07468238751226458</v>
+        <v>0.116619037896906</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1455,16 +1455,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.268285322189331</v>
+        <v>2.307067394256592</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03165798925182815</v>
+        <v>0.07761257208231857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03261547088623047</v>
+        <v>0.0477020263671875</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001270430318809747</v>
+        <v>0.006881812218113414</v>
       </c>
       <c r="F19" t="n">
         <v>20</v>
@@ -1481,28 +1481,28 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.5690359477124183</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.607843137254902</v>
+        <v>0.5</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6906565656565656</v>
+        <v>0.25</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7483164983164984</v>
+        <v>0.5</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6408174886116063</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="P19" t="n">
-        <v>0.06788925589116973</v>
+        <v>0.105409255338946</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1510,16 +1510,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.748748016357422</v>
+        <v>2.964441013336182</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04922216439954823</v>
+        <v>0.09417999055412055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04199948310852051</v>
+        <v>0.06998629570007324</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003662497419794016</v>
+        <v>0.003667173489647799</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
@@ -1536,25 +1536,25 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.5698529411764707</v>
+        <v>0.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6086601307189542</v>
+        <v>0.5</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5936974789915966</v>
+        <v>0.4</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6767676767676767</v>
+        <v>0.25</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7546296296296297</v>
+        <v>0.5</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6407215714568656</v>
+        <v>0.43</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06713558138120196</v>
+        <v>0.09797958971132713</v>
       </c>
       <c r="Q20" t="n">
         <v>9</v>
@@ -1565,16 +1565,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.176802110671997</v>
+        <v>3.907751512527466</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1113816046927863</v>
+        <v>0.3007181073371316</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05451970100402832</v>
+        <v>0.1027263641357422</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009649354646098241</v>
+        <v>0.02845401732711487</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -1591,28 +1591,28 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.5698529411764707</v>
+        <v>0.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6123366013071896</v>
+        <v>0.5</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6012605042016806</v>
+        <v>0.5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6784511784511783</v>
+        <v>0.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7453703703703702</v>
+        <v>0.5</v>
       </c>
       <c r="O21" t="n">
-        <v>0.641454319101378</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>0.06286088589825516</v>
+        <v>0.12</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1620,16 +1620,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4513307571411133</v>
+        <v>0.6750312328338623</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01190123742092898</v>
+        <v>0.06204919930983408</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01476430892944336</v>
+        <v>0.02242741584777832</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001553178304758102</v>
+        <v>0.002400698625013532</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
@@ -1644,28 +1644,28 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.5490196078431372</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.619281045751634</v>
+        <v>0.6</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6418350168350169</v>
+        <v>0.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7672558922558922</v>
+        <v>0.4</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6269068839657075</v>
+        <v>0.28</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07862861299527317</v>
+        <v>0.2039607805437114</v>
       </c>
       <c r="Q22" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1673,16 +1673,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.967624282836914</v>
+        <v>1.468562364578247</v>
       </c>
       <c r="C23" t="n">
-        <v>0.146979458272387</v>
+        <v>0.1230127219534664</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02368807792663574</v>
+        <v>0.03511238098144531</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004461337320554275</v>
+        <v>0.001271870640125113</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
@@ -1697,28 +1697,28 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.5723039215686274</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5955882352941175</v>
+        <v>0.6</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5815126050420169</v>
+        <v>0.25</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7041245791245792</v>
+        <v>0.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6422210197210196</v>
+        <v>0.43</v>
       </c>
       <c r="P23" t="n">
-        <v>0.07468238751226458</v>
+        <v>0.116619037896906</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1726,16 +1726,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.376424264907837</v>
+        <v>2.251316738128662</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03763667142817981</v>
+        <v>0.2786204794233687</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04242877960205078</v>
+        <v>0.0620570182800293</v>
       </c>
       <c r="E24" t="n">
-        <v>0.020457363033633</v>
+        <v>0.009363815848206853</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
@@ -1750,28 +1750,28 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.5690359477124183</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.607843137254902</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6906565656565656</v>
+        <v>0.25</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7483164983164984</v>
+        <v>0.5</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6408174886116063</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06788925589116973</v>
+        <v>0.105409255338946</v>
       </c>
       <c r="Q24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1779,16 +1779,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.702279806137085</v>
+        <v>2.873639917373657</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0596163195740551</v>
+        <v>0.1744563039484725</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02732925415039062</v>
+        <v>0.05313844680786133</v>
       </c>
       <c r="E25" t="n">
-        <v>0.006380107841806613</v>
+        <v>0.01048957285883748</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
@@ -1803,25 +1803,25 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.5698529411764707</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6086601307189542</v>
+        <v>0.5</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5936974789915966</v>
+        <v>0.4</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6767676767676767</v>
+        <v>0.25</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7546296296296297</v>
+        <v>0.5</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6407215714568656</v>
+        <v>0.43</v>
       </c>
       <c r="P25" t="n">
-        <v>0.06713558138120196</v>
+        <v>0.09797958971132713</v>
       </c>
       <c r="Q25" t="n">
         <v>9</v>
@@ -1832,16 +1832,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.616688776016235</v>
+        <v>3.148695039749145</v>
       </c>
       <c r="C26" t="n">
-        <v>0.196370560610279</v>
+        <v>0.2119624434167616</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02243151664733887</v>
+        <v>0.05708346366882324</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006335628197040624</v>
+        <v>0.01219776048474673</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
@@ -1856,28 +1856,28 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.5698529411764707</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6123366013071896</v>
+        <v>0.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6012605042016806</v>
+        <v>0.5</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6784511784511783</v>
+        <v>0.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7453703703703702</v>
+        <v>0.5</v>
       </c>
       <c r="O26" t="n">
-        <v>0.641454319101378</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="P26" t="n">
-        <v>0.06286088589825516</v>
+        <v>0.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
